--- a/dataAnalysisGraphs.xlsx
+++ b/dataAnalysisGraphs.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elizabeth Barnes\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elizabeth Barnes\w19-360420-machine-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D030CA93-52FF-4C94-8A98-B54927DA564F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003BA11C-16B4-4A19-98A3-1C461A456F06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4D271E23-BBA0-41FB-8BFF-21670A73DBD9}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="7500" windowHeight="9345" firstSheet="1" activeTab="1" xr2:uid="{4D271E23-BBA0-41FB-8BFF-21670A73DBD9}"/>
   </bookViews>
   <sheets>
-    <sheet name="properly" sheetId="4" r:id="rId1"/>
-    <sheet name="all malignant" sheetId="7" r:id="rId2"/>
-    <sheet name="all benign" sheetId="6" r:id="rId3"/>
-    <sheet name="all benign except for 1st guess" sheetId="9" r:id="rId4"/>
-    <sheet name="random" sheetId="8" r:id="rId5"/>
+    <sheet name="properly up to k=52" sheetId="10" r:id="rId1"/>
+    <sheet name="properly" sheetId="4" r:id="rId2"/>
+    <sheet name="all malignant" sheetId="7" r:id="rId3"/>
+    <sheet name="all benign" sheetId="6" r:id="rId4"/>
+    <sheet name="all benign except for 1st guess" sheetId="9" r:id="rId5"/>
+    <sheet name="random" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="17">
   <si>
     <t>k</t>
   </si>
@@ -60,13 +61,40 @@
   <si>
     <t>NaN</t>
   </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>thread</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>java.lang.NullPointerException</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>KNNClassifier.getLabelFrequency(KNNClassifier.java:91)</t>
+  </si>
+  <si>
+    <t>KNNClassifier.predict(KNNClassifier.java:136)</t>
+  </si>
+  <si>
+    <t>kNNMain.main(kNNMain.java:65)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -105,9 +133,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -211,7 +241,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>properly!$B$1</c:f>
+              <c:f>'properly up to k=52'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -251,78 +281,78 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>properly!$C$2:$C$11</c:f>
+                <c:f>'properly up to k=52'!$C$2:$C$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>1.2950044021415799E-4</c:v>
+                    <c:v>1.3035250446163E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.11115740630575E-4</c:v>
+                    <c:v>1.0251764425936901E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.22042688875669E-4</c:v>
+                    <c:v>1.14453301606187E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.19932325996431E-4</c:v>
+                    <c:v>1.11024366448542E-4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.3793113622843499E-4</c:v>
+                    <c:v>1.2681020820939901E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.3978346222486601E-4</c:v>
+                    <c:v>1.3216552052349801E-4</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.3934084473527701E-4</c:v>
+                    <c:v>1.4814931588340199E-4</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.46006400951814E-4</c:v>
+                    <c:v>1.3572204640095099E-4</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.40093372992266E-4</c:v>
+                    <c:v>1.42819369422962E-4</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.4786922070196299E-4</c:v>
+                    <c:v>1.43819892920879E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>properly!$C$2:$C$11</c:f>
+                <c:f>'properly up to k=52'!$C$2:$C$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>1.2950044021415799E-4</c:v>
+                    <c:v>1.3035250446163E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.11115740630575E-4</c:v>
+                    <c:v>1.0251764425936901E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.22042688875669E-4</c:v>
+                    <c:v>1.14453301606187E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.19932325996431E-4</c:v>
+                    <c:v>1.11024366448542E-4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.3793113622843499E-4</c:v>
+                    <c:v>1.2681020820939901E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.3978346222486601E-4</c:v>
+                    <c:v>1.3216552052349801E-4</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.3934084473527701E-4</c:v>
+                    <c:v>1.4814931588340199E-4</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.46006400951814E-4</c:v>
+                    <c:v>1.3572204640095099E-4</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.40093372992266E-4</c:v>
+                    <c:v>1.42819369422962E-4</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.4786922070196299E-4</c:v>
+                    <c:v>1.43819892920879E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -343,10 +373,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>properly!$A$2:$A$11</c:f>
+              <c:f>'properly up to k=52'!$A$2:$A$27</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -376,45 +406,141 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>properly!$B$2:$B$11</c:f>
+              <c:f>'properly up to k=52'!$B$2:$B$27</c:f>
               <c:numCache>
-                <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.95810731707318297</c:v>
+                  <c:v>0.95875121951220799</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96838536585367296</c:v>
+                  <c:v>0.96958048780489103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96845853658537895</c:v>
+                  <c:v>0.96873170731708602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96799024390245203</c:v>
+                  <c:v>0.96780000000001298</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96603902439025702</c:v>
+                  <c:v>0.96633658536586697</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96507317073172105</c:v>
+                  <c:v>0.96542439024391502</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.96268780487806105</c:v>
+                  <c:v>0.96339024390245198</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.96223902439025699</c:v>
+                  <c:v>0.96175121951220899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.96085853658537801</c:v>
+                  <c:v>0.96099512195123304</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95993170731708599</c:v>
+                  <c:v>0.96006341463415901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95958048780489003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95815121951220705</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95678048780489</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95602926829269297</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.95582926829269399</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95353170731708203</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.95093170731708299</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94962439024391099</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.94850731707317804</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.94500487804878497</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94296585365853902</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.94053658536585505</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.93686341463414302</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.932756097560971</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.92916585365853199</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.92185853658535799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -422,7 +548,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1C61-45EB-B990-81D79FBE6AD5}"/>
+              <c16:uniqueId val="{00000000-B97F-47E1-B63E-0B7ED83EE8B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -513,7 +639,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -635,7 +761,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -844,7 +970,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'all benign except for 1st guess'!$B$1</c:f>
+              <c:f>'all benign'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -884,78 +1010,78 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'all benign except for 1st guess'!$C$2:$C$11</c:f>
+                <c:f>'all benign'!$C$2:$C$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>7.91846543723977E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>7.8091971445568096E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>7.3488159428911201E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>7.2263916716240205E-4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>6.6754465199286297E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>7.8129149315883401E-4</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>8.0037403926234497E-4</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>7.9171502676978096E-4</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>7.3596475907198103E-4</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>7.3672278405710796E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'all benign except for 1st guess'!$C$2:$C$11</c:f>
+                <c:f>'all benign'!$C$2:$C$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>7.91846543723977E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>7.8091971445568096E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>7.3488159428911201E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>7.2263916716240205E-4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>6.6754465199286297E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>7.8129149315883401E-4</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>8.0037403926234497E-4</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>7.9171502676978096E-4</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>7.3596475907198103E-4</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>7.3672278405710796E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -976,7 +1102,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'all benign except for 1st guess'!$A$2:$A$11</c:f>
+              <c:f>'all benign'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1015,39 +1141,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'all benign except for 1st guess'!$B$2:$B$11</c:f>
+              <c:f>'all benign'!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.63414634146341398</c:v>
+                  <c:v>0.65167317073170405</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61951219512195099</c:v>
+                  <c:v>0.65264878048780195</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66341463414634105</c:v>
+                  <c:v>0.65097073170731401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63414634146341398</c:v>
+                  <c:v>0.65227804878048401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59512195121951195</c:v>
+                  <c:v>0.6522243902439</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65365853658536499</c:v>
+                  <c:v>0.65251219512194902</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66341463414634105</c:v>
+                  <c:v>0.65077560975609405</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.62439024390243902</c:v>
+                  <c:v>0.65256585365853403</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.66829268292682897</c:v>
+                  <c:v>0.65248292682926501</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.62926829268292594</c:v>
+                  <c:v>0.652609756097558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1055,7 +1181,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BC43-4FB2-A167-2223296BA6F7}"/>
+              <c16:uniqueId val="{00000000-691D-4AE6-B7D5-E1A283D31218}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1477,7 +1603,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'all benign except for 1st guess'!$F$1</c:f>
+              <c:f>'all benign'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1519,7 +1645,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'all benign except for 1st guess'!$G$2:$G$11</c:f>
+                <c:f>'all benign'!$G$2:$G$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
@@ -1558,7 +1684,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'all benign except for 1st guess'!$G$2:$G$11</c:f>
+                <c:f>'all benign'!$G$2:$G$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
@@ -1611,7 +1737,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'all benign except for 1st guess'!$A$2:$A$11</c:f>
+              <c:f>'all benign'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1650,12 +1776,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'all benign except for 1st guess'!$F$2:$F$11</c:f>
+              <c:f>'all benign'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.3157894736842099E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1670,7 +1796,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.38888888888888E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1682,7 +1808,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2987012987012899E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1690,7 +1816,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-654B-4CDA-B3E7-3EDD1CC4EC33}"/>
+              <c16:uniqueId val="{00000000-1EDA-49BC-8C29-F64FFBF80986}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2117,7 +2243,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'all benign except for 1st guess'!$D$1</c:f>
+              <c:f>'all benign'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2157,7 +2283,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'all benign except for 1st guess'!$E$2:$E$11</c:f>
+                <c:f>'all benign'!$E$2:$E$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
@@ -2196,7 +2322,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'all benign except for 1st guess'!$E$2:$E$11</c:f>
+                <c:f>'all benign'!$E$2:$E$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
@@ -2249,7 +2375,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'all benign except for 1st guess'!$A$2:$A$11</c:f>
+              <c:f>'all benign'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2288,12 +2414,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'all benign except for 1st guess'!$D$2:$D$11</c:f>
+              <c:f>'all benign'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2308,7 +2434,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2320,7 +2446,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2328,7 +2454,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-51D2-491C-BCB8-7BD6CB236DCC}"/>
+              <c16:uniqueId val="{00000000-3110-4CBB-9B8A-093B627663EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2745,7 +2871,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>random!$B$1</c:f>
+              <c:f>'all benign except for 1st guess'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2785,78 +2911,78 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>random!$C$2:$C$11</c:f>
+                <c:f>'all benign except for 1st guess'!$C$2:$C$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>1.2177126710291399E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.1497471505056501E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.1925137656157E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.29234655562164E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.1658061629982099E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.2264528019036299E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.2350719809637099E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.1200380487804799E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.1705792028554401E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.28195493158833E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>random!$C$2:$C$11</c:f>
+                <c:f>'all benign except for 1st guess'!$C$2:$C$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>1.2177126710291399E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.1497471505056501E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.1925137656157E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.29234655562164E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.1658061629982099E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.2264528019036299E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.2350719809637099E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.1200380487804799E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.1705792028554401E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.28195493158833E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2877,7 +3003,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>random!$A$2:$A$11</c:f>
+              <c:f>'all benign except for 1st guess'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2916,39 +3042,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>random!$B$2:$B$11</c:f>
+              <c:f>'all benign except for 1st guess'!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.50134146341463304</c:v>
+                  <c:v>0.63414634146341398</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50182439024390202</c:v>
+                  <c:v>0.61951219512195099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49827804878048698</c:v>
+                  <c:v>0.66341463414634105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.49972682926829198</c:v>
+                  <c:v>0.63414634146341398</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.49944390243902398</c:v>
+                  <c:v>0.59512195121951195</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.50054146341463401</c:v>
+                  <c:v>0.65365853658536499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.502</c:v>
+                  <c:v>0.66341463414634105</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.50023902439024404</c:v>
+                  <c:v>0.62439024390243902</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.501692682926829</c:v>
+                  <c:v>0.66829268292682897</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.50030243902438998</c:v>
+                  <c:v>0.62926829268292594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2956,7 +3082,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4F55-48E3-A57F-0FEEEDBA8E29}"/>
+              <c16:uniqueId val="{00000000-BC43-4FB2-A167-2223296BA6F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3378,7 +3504,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>random!$F$1</c:f>
+              <c:f>'all benign except for 1st guess'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3420,78 +3546,78 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>random!$G$2:$G$11</c:f>
+                <c:f>'all benign except for 1st guess'!$G$2:$G$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>3.4767970708826398E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.2110224872222101E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.6909644709299601E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.68050271778255E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.5198295362548499E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3.5205665305608098E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.7292754030492001E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3.4017072067740301E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3.67038208772476E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>3.8589944632963602E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>random!$G$2:$G$11</c:f>
+                <c:f>'all benign except for 1st guess'!$G$2:$G$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>3.4767970708826398E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.2110224872222101E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.6909644709299601E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.68050271778255E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.5198295362548499E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3.5205665305608098E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.7292754030492001E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3.4017072067740301E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3.67038208772476E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>3.8589944632963602E-3</c:v>
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3512,7 +3638,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>random!$A$2:$A$11</c:f>
+              <c:f>'all benign except for 1st guess'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3551,39 +3677,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>random!$F$2:$F$11</c:f>
+              <c:f>'all benign except for 1st guess'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.50072606883497395</c:v>
+                  <c:v>1.3157894736842099E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50262517322616396</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.50019587539555199</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.49934640369391398</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.50038776695366605</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.50079757992179497</c:v>
+                  <c:v>1.38888888888888E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.50254581327543202</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.498213929039379</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.50283320639663498</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.50240028908634404</c:v>
+                  <c:v>1.2987012987012899E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3591,7 +3717,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D760-4DB1-87FE-D918DA4D5B6B}"/>
+              <c16:uniqueId val="{00000000-654B-4CDA-B3E7-3EDD1CC4EC33}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4018,6 +4144,1907 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'all benign except for 1st guess'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'all benign except for 1st guess'!$E$2:$E$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'all benign except for 1st guess'!$E$2:$E$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'all benign except for 1st guess'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'all benign except for 1st guess'!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51D2-491C-BCB8-7BD6CB236DCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="482750136"/>
+        <c:axId val="442862648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="482750136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>k nearest neighbours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442862648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="442862648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>mean precision over 1000 repetitions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482750136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph 1: Mean accuracy as a function</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of k</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>random!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>random!$C$2:$C$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.2177126710291399E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1497471505056501E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.1925137656157E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.29234655562164E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.1658061629982099E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.2264528019036299E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.2350719809637099E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.1200380487804799E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.1705792028554401E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.28195493158833E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>random!$C$2:$C$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>1.2177126710291399E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.1497471505056501E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.1925137656157E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.29234655562164E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.1658061629982099E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.2264528019036299E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.2350719809637099E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.1200380487804799E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.1705792028554401E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.28195493158833E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>random!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>random!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.50134146341463304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50182439024390202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49827804878048698</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49972682926829198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49944390243902398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50054146341463401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.502</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50023902439024404</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.501692682926829</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50030243902438998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4F55-48E3-A57F-0FEEEDBA8E29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="482750136"/>
+        <c:axId val="442862648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="482750136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>k nearest neighbours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442862648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="442862648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>mean</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> accuracy over 1000 repetitions</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482750136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph 3: Mean recall</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> as a function of k</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>random!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>random!$G$2:$G$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>3.4767970708826398E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.2110224872222101E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.6909644709299601E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.68050271778255E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.5198295362548499E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.5205665305608098E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.7292754030492001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.4017072067740301E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.67038208772476E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.8589944632963602E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>random!$G$2:$G$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>3.4767970708826398E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.2110224872222101E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.6909644709299601E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.68050271778255E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.5198295362548499E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.5205665305608098E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.7292754030492001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.4017072067740301E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.67038208772476E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.8589944632963602E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>random!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>random!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.50072606883497395</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50262517322616396</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50019587539555199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49934640369391398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50038776695366605</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50079757992179497</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50254581327543202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.498213929039379</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50283320639663498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50240028908634404</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D760-4DB1-87FE-D918DA4D5B6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="482750136"/>
+        <c:axId val="442862648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="482750136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>k</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> nearest neighbours</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442862648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="442862648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>mean recall</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> over 1000 repetitions</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482750136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph 2: Mean precision as</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> a function of k</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>random!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -4646,7 +6673,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>properly!$F$1</c:f>
+              <c:f>'properly up to k=52'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4688,78 +6715,78 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>properly!$G$2:$G$11</c:f>
+                <c:f>'properly up to k=52'!$G$2:$G$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>9.7535722149467703E-4</c:v>
+                    <c:v>8.6612233445681596E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.7926009958914704E-4</c:v>
+                    <c:v>6.4846138328652104E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.2599805016704602E-4</c:v>
+                    <c:v>6.6291106302021803E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.7456810865515503E-4</c:v>
+                    <c:v>6.6501040233551696E-4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.7352966211679099E-4</c:v>
+                    <c:v>7.4726772663844703E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.6614730316035696E-4</c:v>
+                    <c:v>8.5862753701010895E-4</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>8.3988096091504403E-4</c:v>
+                    <c:v>8.8831671064697995E-4</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.6621959808176597E-4</c:v>
+                    <c:v>8.2475475884885401E-4</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>8.3715255379428297E-4</c:v>
+                    <c:v>8.8433673762411196E-4</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>9.1517659349570003E-4</c:v>
+                    <c:v>8.5929625063622603E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>properly!$G$2:$G$11</c:f>
+                <c:f>'properly up to k=52'!$G$2:$G$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>9.7535722149467703E-4</c:v>
+                    <c:v>8.6612233445681596E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>6.7926009958914704E-4</c:v>
+                    <c:v>6.4846138328652104E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.2599805016704602E-4</c:v>
+                    <c:v>6.6291106302021803E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6.7456810865515503E-4</c:v>
+                    <c:v>6.6501040233551696E-4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.7352966211679099E-4</c:v>
+                    <c:v>7.4726772663844703E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.6614730316035696E-4</c:v>
+                    <c:v>8.5862753701010895E-4</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>8.3988096091504403E-4</c:v>
+                    <c:v>8.8831671064697995E-4</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.6621959808176597E-4</c:v>
+                    <c:v>8.2475475884885401E-4</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>8.3715255379428297E-4</c:v>
+                    <c:v>8.8433673762411196E-4</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>9.1517659349570003E-4</c:v>
+                    <c:v>8.5929625063622603E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4780,10 +6807,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>properly!$A$2:$A$11</c:f>
+              <c:f>'properly up to k=52'!$A$2:$A$27</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4813,45 +6840,141 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>properly!$F$2:$F$11</c:f>
+              <c:f>'properly up to k=52'!$F$2:$F$27</c:f>
               <c:numCache>
-                <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.93059873198478005</c:v>
+                  <c:v>0.93142648166690201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95627899577892295</c:v>
+                  <c:v>0.95875266396594505</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95402783205560304</c:v>
+                  <c:v>0.95377949860506295</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95097391989818802</c:v>
+                  <c:v>0.94973985260096805</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94303102981757203</c:v>
+                  <c:v>0.94355276068148097</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93816817626155502</c:v>
+                  <c:v>0.93833497885882</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92960916912490199</c:v>
+                  <c:v>0.93180264649436195</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92664269179954795</c:v>
+                  <c:v>0.92590950351738199</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92195413250311897</c:v>
+                  <c:v>0.92228716750656903</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91766033273881098</c:v>
+                  <c:v>0.91913074392511696</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91628643033724</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91174793044306202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.90732303833877304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.90441365288702003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.90199424684040697</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.89504895479301605</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.88724496327944802</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.88317435787161402</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.87774887770935694</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.86793139900428495</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.86201138941676703</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.85347729441597098</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.84336603594521697</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.82954570558014795</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.81680068227382896</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.79443368322186902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4859,7 +6982,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-235F-45F6-814F-22831C3E75E9}"/>
+              <c16:uniqueId val="{00000000-A4E1-4CE5-A713-E00C2D0D73A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4955,7 +7078,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5077,7 +7200,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5286,7 +7409,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>properly!$D$1</c:f>
+              <c:f>'properly up to k=52'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5326,78 +7449,78 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>properly!$E$2:$E$11</c:f>
+                <c:f>'properly up to k=52'!$E$2:$E$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>5.0722733392715997E-4</c:v>
+                    <c:v>4.7714640785415601E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.9958771727543101E-4</c:v>
+                    <c:v>4.77556044219195E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.0141129328399095E-4</c:v>
+                    <c:v>4.64900734634861E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.6108215469853298E-4</c:v>
+                    <c:v>4.2464542904449099E-4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>4.6474204983803201E-4</c:v>
+                    <c:v>4.26965979328656E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.4099940122341102E-4</c:v>
+                    <c:v>4.18650711423927E-4</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>4.2765939956919099E-4</c:v>
+                    <c:v>4.2031422668740201E-4</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3.8742554132017098E-4</c:v>
+                    <c:v>3.8455309413304401E-4</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3.6863919123968699E-4</c:v>
+                    <c:v>3.7678878391753502E-4</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>3.5595606010818898E-4</c:v>
+                    <c:v>3.7524199160673098E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>properly!$E$2:$E$11</c:f>
+                <c:f>'properly up to k=52'!$E$2:$E$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>5.0722733392715997E-4</c:v>
+                    <c:v>4.7714640785415601E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.9958771727543101E-4</c:v>
+                    <c:v>4.77556044219195E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.0141129328399095E-4</c:v>
+                    <c:v>4.64900734634861E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.6108215469853298E-4</c:v>
+                    <c:v>4.2464542904449099E-4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>4.6474204983803201E-4</c:v>
+                    <c:v>4.26965979328656E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.4099940122341102E-4</c:v>
+                    <c:v>4.18650711423927E-4</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>4.2765939956919099E-4</c:v>
+                    <c:v>4.2031422668740201E-4</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>3.8742554132017098E-4</c:v>
+                    <c:v>3.8455309413304401E-4</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>3.6863919123968699E-4</c:v>
+                    <c:v>3.7678878391753502E-4</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>3.5595606010818898E-4</c:v>
+                    <c:v>3.7524199160673098E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5418,10 +7541,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>properly!$A$2:$A$11</c:f>
+              <c:f>'properly up to k=52'!$A$2:$A$27</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5451,45 +7574,141 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>properly!$D$2:$D$11</c:f>
+              <c:f>'properly up to k=52'!$D$2:$D$27</c:f>
               <c:numCache>
-                <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.94846815921573002</c:v>
+                  <c:v>0.94979240732366399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95355035265372001</c:v>
+                  <c:v>0.95429381001437996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.955344822585102</c:v>
+                  <c:v>0.95650083667380303</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95697256795194596</c:v>
+                  <c:v>0.95720081453523298</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.95895054453964901</c:v>
+                  <c:v>0.95915359510482401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96046692020165703</c:v>
+                  <c:v>0.96173409215292704</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.96207260343656398</c:v>
+                  <c:v>0.96245357285286603</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.96353150554222999</c:v>
+                  <c:v>0.96300018682145005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.96449605526148596</c:v>
+                  <c:v>0.96397051663980604</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.96550715585399605</c:v>
+                  <c:v>0.96491511078053505</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.96581465005462797</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.96616495698367999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.96624516707256003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96721273677402098</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.96870301718311502</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96896798722742705</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.96967939696192096</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97027680776743397</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97137652981700995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97096397977518001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.97107131106723699</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.97298745818115495</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.972961521477957</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.97442756077429904</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.97621022799767099</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.97834372799258695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5497,7 +7716,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0D71-4757-B795-C0825351E87F}"/>
+              <c16:uniqueId val="{00000000-1702-43A7-88C8-410B04E25074}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5588,7 +7807,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5705,7 +7924,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5914,7 +8133,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'all malignant'!$B$1</c:f>
+              <c:f>properly!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5954,78 +8173,78 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'all malignant'!$C$2:$C$11</c:f>
+                <c:f>properly!$C$2:$C$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>8.0220761451516801E-4</c:v>
+                    <c:v>1.2950044021415799E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.4046581796549296E-4</c:v>
+                    <c:v>1.11115740630575E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.1852230814990997E-4</c:v>
+                    <c:v>1.22042688875669E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.6179604997025604E-4</c:v>
+                    <c:v>1.19932325996431E-4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>8.0147471743010495E-4</c:v>
+                    <c:v>1.3793113622843499E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.16494253420585E-4</c:v>
+                    <c:v>1.3978346222486601E-4</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>8.0788635336109696E-4</c:v>
+                    <c:v>1.3934084473527701E-4</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>7.6944140392623398E-4</c:v>
+                    <c:v>1.46006400951814E-4</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.6647136228435596E-4</c:v>
+                    <c:v>1.40093372992266E-4</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>7.8871709696608802E-4</c:v>
+                    <c:v>1.4786922070196299E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'all malignant'!$C$2:$C$11</c:f>
+                <c:f>properly!$C$2:$C$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>8.0220761451516801E-4</c:v>
+                    <c:v>1.2950044021415799E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.4046581796549296E-4</c:v>
+                    <c:v>1.11115740630575E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.1852230814990997E-4</c:v>
+                    <c:v>1.22042688875669E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.6179604997025604E-4</c:v>
+                    <c:v>1.19932325996431E-4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>8.0147471743010495E-4</c:v>
+                    <c:v>1.3793113622843499E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.16494253420585E-4</c:v>
+                    <c:v>1.3978346222486601E-4</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>8.0788635336109696E-4</c:v>
+                    <c:v>1.3934084473527701E-4</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>7.6944140392623398E-4</c:v>
+                    <c:v>1.46006400951814E-4</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.6647136228435596E-4</c:v>
+                    <c:v>1.40093372992266E-4</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>7.8871709696608802E-4</c:v>
+                    <c:v>1.4786922070196299E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6046,7 +8265,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'all malignant'!$A$2:$A$11</c:f>
+              <c:f>properly!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6085,39 +8304,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'all malignant'!$B$2:$B$11</c:f>
+              <c:f>properly!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.347390243902439</c:v>
+                  <c:v>0.95810731707318297</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34813658536585301</c:v>
+                  <c:v>0.96838536585367296</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34824390243902398</c:v>
+                  <c:v>0.96845853658537895</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34897073170731602</c:v>
+                  <c:v>0.96799024390245203</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.34782926829268201</c:v>
+                  <c:v>0.96603902439025702</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34842439024390198</c:v>
+                  <c:v>0.96507317073172105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.346224390243902</c:v>
+                  <c:v>0.96268780487806105</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.34690243902439</c:v>
+                  <c:v>0.96223902439025699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.34843414634146302</c:v>
+                  <c:v>0.96085853658537801</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.34703414634146301</c:v>
+                  <c:v>0.95993170731708599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6125,7 +8344,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C688-46F2-8F3E-1BD0E34D2B5A}"/>
+              <c16:uniqueId val="{00000000-1C61-45EB-B990-81D79FBE6AD5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6547,7 +8766,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'all malignant'!$F$1</c:f>
+              <c:f>properly!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6589,78 +8808,78 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'all malignant'!$G$2:$G$11</c:f>
+                <c:f>properly!$G$2:$G$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>9.7535722149467703E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>6.7926009958914704E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>7.2599805016704602E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>6.7456810865515503E-4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>7.7352966211679099E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>7.6614730316035696E-4</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>8.3988096091504403E-4</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>8.6621959808176597E-4</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>8.3715255379428297E-4</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>9.1517659349570003E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'all malignant'!$G$2:$G$11</c:f>
+                <c:f>properly!$G$2:$G$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>9.7535722149467703E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>6.7926009958914704E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>7.2599805016704602E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>6.7456810865515503E-4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>7.7352966211679099E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>7.6614730316035696E-4</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>8.3988096091504403E-4</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>8.6621959808176597E-4</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>8.3715255379428297E-4</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>9.1517659349570003E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6681,7 +8900,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'all malignant'!$A$2:$A$11</c:f>
+              <c:f>properly!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6720,39 +8939,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'all malignant'!$F$2:$F$11</c:f>
+              <c:f>properly!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.93059873198478005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.95627899577892295</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.95402783205560304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.95097391989818802</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.94303102981757203</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.93816817626155502</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.92960916912490199</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0.92664269179954795</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0.92195413250311897</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0.91766033273881098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6760,7 +8979,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FECC-4A07-ACAC-2729F9ACADE3}"/>
+              <c16:uniqueId val="{00000002-235F-45F6-814F-22831C3E75E9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7187,7 +9406,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'all malignant'!$D$1</c:f>
+              <c:f>properly!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7227,78 +9446,78 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'all malignant'!$E$2:$E$11</c:f>
+                <c:f>properly!$E$2:$E$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>8.0220761451516801E-4</c:v>
+                    <c:v>5.0722733392715997E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.4046581796549296E-4</c:v>
+                    <c:v>4.9958771727543101E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.1852230814990997E-4</c:v>
+                    <c:v>5.0141129328399095E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.6179604997025604E-4</c:v>
+                    <c:v>4.6108215469853298E-4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>8.0147471743010495E-4</c:v>
+                    <c:v>4.6474204983803201E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.16494253420585E-4</c:v>
+                    <c:v>4.4099940122341102E-4</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>8.0788635336109696E-4</c:v>
+                    <c:v>4.2765939956919099E-4</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>7.6944140392623398E-4</c:v>
+                    <c:v>3.8742554132017098E-4</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.6647136228435596E-4</c:v>
+                    <c:v>3.6863919123968699E-4</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>7.8871709696608802E-4</c:v>
+                    <c:v>3.5595606010818898E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'all malignant'!$E$2:$E$11</c:f>
+                <c:f>properly!$E$2:$E$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>8.0220761451516801E-4</c:v>
+                    <c:v>5.0722733392715997E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.4046581796549296E-4</c:v>
+                    <c:v>4.9958771727543101E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.1852230814990997E-4</c:v>
+                    <c:v>5.0141129328399095E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.6179604997025604E-4</c:v>
+                    <c:v>4.6108215469853298E-4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>8.0147471743010495E-4</c:v>
+                    <c:v>4.6474204983803201E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.16494253420585E-4</c:v>
+                    <c:v>4.4099940122341102E-4</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>8.0788635336109696E-4</c:v>
+                    <c:v>4.2765939956919099E-4</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>7.6944140392623398E-4</c:v>
+                    <c:v>3.8742554132017098E-4</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.6647136228435596E-4</c:v>
+                    <c:v>3.6863919123968699E-4</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>7.8871709696608802E-4</c:v>
+                    <c:v>3.5595606010818898E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -7319,7 +9538,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'all malignant'!$A$2:$A$11</c:f>
+              <c:f>properly!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7358,39 +9577,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'all malignant'!$D$2:$D$11</c:f>
+              <c:f>properly!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.347390243902439</c:v>
+                  <c:v>0.94846815921573002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34813658536585301</c:v>
+                  <c:v>0.95355035265372001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34824390243902398</c:v>
+                  <c:v>0.955344822585102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34897073170731602</c:v>
+                  <c:v>0.95697256795194596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.34782926829268201</c:v>
+                  <c:v>0.95895054453964901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34842439024390198</c:v>
+                  <c:v>0.96046692020165703</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.346224390243902</c:v>
+                  <c:v>0.96207260343656398</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.34690243902439</c:v>
+                  <c:v>0.96353150554222999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.34843414634146302</c:v>
+                  <c:v>0.96449605526148596</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.34703414634146301</c:v>
+                  <c:v>0.96550715585399605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7398,7 +9617,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-939F-4CE6-9142-1C49BF7F6723}"/>
+              <c16:uniqueId val="{00000001-0D71-4757-B795-C0825351E87F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7815,7 +10034,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'all benign'!$B$1</c:f>
+              <c:f>'all malignant'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7855,78 +10074,78 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'all benign'!$C$2:$C$11</c:f>
+                <c:f>'all malignant'!$C$2:$C$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>7.91846543723977E-4</c:v>
+                    <c:v>8.0220761451516801E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.8091971445568096E-4</c:v>
+                    <c:v>8.4046581796549296E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.3488159428911201E-4</c:v>
+                    <c:v>7.1852230814990997E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.2263916716240205E-4</c:v>
+                    <c:v>7.6179604997025604E-4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>6.6754465199286297E-4</c:v>
+                    <c:v>8.0147471743010495E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.8129149315883401E-4</c:v>
+                    <c:v>7.16494253420585E-4</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>8.0037403926234497E-4</c:v>
+                    <c:v>8.0788635336109696E-4</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>7.9171502676978096E-4</c:v>
+                    <c:v>7.6944140392623398E-4</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.3596475907198103E-4</c:v>
+                    <c:v>7.6647136228435596E-4</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>7.3672278405710796E-4</c:v>
+                    <c:v>7.8871709696608802E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'all benign'!$C$2:$C$11</c:f>
+                <c:f>'all malignant'!$C$2:$C$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>7.91846543723977E-4</c:v>
+                    <c:v>8.0220761451516801E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.8091971445568096E-4</c:v>
+                    <c:v>8.4046581796549296E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.3488159428911201E-4</c:v>
+                    <c:v>7.1852230814990997E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.2263916716240205E-4</c:v>
+                    <c:v>7.6179604997025604E-4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>6.6754465199286297E-4</c:v>
+                    <c:v>8.0147471743010495E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.8129149315883401E-4</c:v>
+                    <c:v>7.16494253420585E-4</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>8.0037403926234497E-4</c:v>
+                    <c:v>8.0788635336109696E-4</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>7.9171502676978096E-4</c:v>
+                    <c:v>7.6944140392623398E-4</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.3596475907198103E-4</c:v>
+                    <c:v>7.6647136228435596E-4</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>7.3672278405710796E-4</c:v>
+                    <c:v>7.8871709696608802E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -7947,7 +10166,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'all benign'!$A$2:$A$11</c:f>
+              <c:f>'all malignant'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -7986,39 +10205,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'all benign'!$B$2:$B$11</c:f>
+              <c:f>'all malignant'!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.65167317073170405</c:v>
+                  <c:v>0.347390243902439</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65264878048780195</c:v>
+                  <c:v>0.34813658536585301</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65097073170731401</c:v>
+                  <c:v>0.34824390243902398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65227804878048401</c:v>
+                  <c:v>0.34897073170731602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6522243902439</c:v>
+                  <c:v>0.34782926829268201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65251219512194902</c:v>
+                  <c:v>0.34842439024390198</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.65077560975609405</c:v>
+                  <c:v>0.346224390243902</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.65256585365853403</c:v>
+                  <c:v>0.34690243902439</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.65248292682926501</c:v>
+                  <c:v>0.34843414634146302</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.652609756097558</c:v>
+                  <c:v>0.34703414634146301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8026,7 +10245,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-691D-4AE6-B7D5-E1A283D31218}"/>
+              <c16:uniqueId val="{00000000-C688-46F2-8F3E-1BD0E34D2B5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8448,7 +10667,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'all benign'!$F$1</c:f>
+              <c:f>'all malignant'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8490,7 +10709,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'all benign'!$G$2:$G$11</c:f>
+                <c:f>'all malignant'!$G$2:$G$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
@@ -8529,7 +10748,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'all benign'!$G$2:$G$11</c:f>
+                <c:f>'all malignant'!$G$2:$G$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
@@ -8582,7 +10801,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'all benign'!$A$2:$A$11</c:f>
+              <c:f>'all malignant'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8621,39 +10840,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'all benign'!$F$2:$F$11</c:f>
+              <c:f>'all malignant'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8661,7 +10880,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1EDA-49BC-8C29-F64FFBF80986}"/>
+              <c16:uniqueId val="{00000000-FECC-4A07-ACAC-2729F9ACADE3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9088,7 +11307,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'all benign'!$D$1</c:f>
+              <c:f>'all malignant'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9128,78 +11347,78 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'all benign'!$E$2:$E$11</c:f>
+                <c:f>'all malignant'!$E$2:$E$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>8.0220761451516801E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>8.4046581796549296E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>7.1852230814990997E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>7.6179604997025604E-4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>8.0147471743010495E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>7.16494253420585E-4</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>8.0788635336109696E-4</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>7.6944140392623398E-4</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>7.6647136228435596E-4</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>7.8871709696608802E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'all benign'!$E$2:$E$11</c:f>
+                <c:f>'all malignant'!$E$2:$E$11</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="10"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>8.0220761451516801E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>8.4046581796549296E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>7.1852230814990997E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>7.6179604997025604E-4</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>8.0147471743010495E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>7.16494253420585E-4</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>8.0788635336109696E-4</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>7.6944140392623398E-4</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>7.6647136228435596E-4</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>0</c:v>
+                    <c:v>7.8871709696608802E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -9220,7 +11439,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'all benign'!$A$2:$A$11</c:f>
+              <c:f>'all malignant'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9259,39 +11478,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'all benign'!$D$2:$D$11</c:f>
+              <c:f>'all malignant'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.347390243902439</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.34813658536585301</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.34824390243902398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.34897073170731602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.34782926829268201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.34842439024390198</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.346224390243902</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.34690243902439</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.34843414634146302</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.34703414634146301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9299,7 +11518,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3110-4CBB-9B8A-093B627663EE}"/>
+              <c16:uniqueId val="{00000000-939F-4CE6-9142-1C49BF7F6723}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9911,6 +12130,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -13843,7 +16182,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14359,7 +16698,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14875,7 +17214,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15391,7 +17730,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15907,7 +18246,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16423,7 +18762,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16939,7 +19278,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17455,7 +19794,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17971,7 +20310,1674 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>591140</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>26829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>557866</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>167956</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E442F3CB-E838-4EED-8FB9-080E6A673D73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>134987</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>101712</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>151496</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{484E77CB-F5EE-4B0F-9592-77039579ACCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>88983</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>26830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>55708</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>167957</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B78A594C-0C50-4DB4-A3E4-F7CF5BE25B1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18088,7 +22094,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18207,7 +22213,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18326,7 +22332,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18445,7 +22451,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18860,10 +22866,698 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295EAD86-759A-4D89-A044-AA6C5234C7DF}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView zoomScale="72" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.95875121951220799</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.3035250446163E-4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.94979240732366399</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4.7714640785415601E-4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.93142648166690201</v>
+      </c>
+      <c r="G2" s="2">
+        <v>8.6612233445681596E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.96958048780489103</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.0251764425936901E-4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.95429381001437996</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4.77556044219195E-4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.95875266396594505</v>
+      </c>
+      <c r="G3" s="2">
+        <v>6.4846138328652104E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.96873170731708602</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.14453301606187E-4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.95650083667380303</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4.64900734634861E-4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.95377949860506295</v>
+      </c>
+      <c r="G4" s="2">
+        <v>6.6291106302021803E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.96780000000001298</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.11024366448542E-4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.95720081453523298</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4.2464542904449099E-4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.94973985260096805</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6.6501040233551696E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.96633658536586697</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.2681020820939901E-4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.95915359510482401</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4.26965979328656E-4</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.94355276068148097</v>
+      </c>
+      <c r="G6" s="2">
+        <v>7.4726772663844703E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.96542439024391502</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.3216552052349801E-4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.96173409215292704</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4.18650711423927E-4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.93833497885882</v>
+      </c>
+      <c r="G7" s="2">
+        <v>8.5862753701010895E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.96339024390245198</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.4814931588340199E-4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.96245357285286603</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4.2031422668740201E-4</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.93180264649436195</v>
+      </c>
+      <c r="G8" s="2">
+        <v>8.8831671064697995E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.96175121951220899</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.3572204640095099E-4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.96300018682145005</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3.8455309413304401E-4</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.92590950351738199</v>
+      </c>
+      <c r="G9" s="2">
+        <v>8.2475475884885401E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.96099512195123304</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.42819369422962E-4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.96397051663980604</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3.7678878391753502E-4</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.92228716750656903</v>
+      </c>
+      <c r="G10" s="2">
+        <v>8.8433673762411196E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.96006341463415901</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.43819892920879E-4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.96491511078053505</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3.7524199160673098E-4</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.91913074392511696</v>
+      </c>
+      <c r="G11" s="2">
+        <v>8.5929625063622603E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.95958048780489003</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.3896975609756099E-4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.96581465005462797</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3.89261652334062E-4</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.91628643033724</v>
+      </c>
+      <c r="G12" s="2">
+        <v>8.8435368392079201E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.95815121951220705</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.4319474122546E-4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.96616495698367999</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3.2705647225273198E-4</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.91174793044306202</v>
+      </c>
+      <c r="G13" s="2">
+        <v>8.5370332934253505E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.95678048780489</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.5239500297441999E-4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.96624516707256003</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3.7162824273671602E-4</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.90732303833877304</v>
+      </c>
+      <c r="G14" s="2">
+        <v>9.4519809621254603E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.95602926829269297</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.59519428911362E-4</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.96721273677402098</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3.4721134161661297E-4</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.90441365288702003</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1.01607080765902E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.95582926829269399</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.53146341463414E-4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.96870301718311502</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3.3511177342367902E-4</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.90199424684040697</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1.0471388056820499E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.95353170731708203</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.6993037477691601E-4</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.96896798722742705</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3.5186510884705797E-4</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.89504895479301605</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1.0914986634355101E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.95093170731708299</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.8307005353955801E-4</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.96967939696192096</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3.2039294921555199E-4</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.88724496327944802</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1.2062828386201201E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.94962439024391099</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2.10305080309339E-4</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.97027680776743397</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3.3033501101852102E-4</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.88317435787161402</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1.38238532103768E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.94850731707317804</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2.11561308744793E-4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.97137652981700995</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3.2679150888109698E-4</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.87774887770935694</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1.3530976840233401E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.94500487804878497</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.9690479476501901E-4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.97096397977518001</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3.0708907033740802E-4</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.86793139900428495</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1.3530864574767599E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.94296585365853902</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2.39360761451516E-4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.97107131106723699</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3.24224343929803E-4</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.86201138941676703</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1.53902934008175E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.94053658536585505</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2.47326591314692E-4</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.97298745818115495</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3.0723041099043301E-4</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.85347729441597098</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1.6457531355913201E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>45</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.93686341463414302</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3.0861989292088002E-4</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.972961521477957</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3.36962896345218E-4</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.84336603594521697</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1.9705936956333999E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>47</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.932756097560971</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3.2196966091612101E-4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.97442756077429904</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3.3134801038269099E-4</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.82954570558014795</v>
+      </c>
+      <c r="G25" s="2">
+        <v>2.2615228110943E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>49</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.92916585365853199</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3.8537915526472001E-4</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.97621022799767099</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3.3462509282225402E-4</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.81680068227382896</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2.6509786452511498E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>51</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.92185853658535799</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5.4559521713265697E-4</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.97834372799258695</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3.11641724635315E-4</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.79443368322186902</v>
+      </c>
+      <c r="G27" s="2">
+        <v>3.8108529716865702E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADDBDB0-5F9B-4732-95DA-3795AD9118BC}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="72" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -19136,7 +23830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D56C43-7B5C-4C3B-9474-932127437744}">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -19413,7 +24107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1E1685-717A-4D1D-9973-2F81B036C816}">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -19690,7 +24384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97DEB37-CACC-4E4F-B0A6-4FEB8668DF97}">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -19967,7 +24661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B73ECD-EDD4-4620-BC99-72ABFEAA51F0}">
   <dimension ref="A1:G11"/>
   <sheetViews>

--- a/dataAnalysisGraphs.xlsx
+++ b/dataAnalysisGraphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elizabeth Barnes\w19-360420-machine-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003BA11C-16B4-4A19-98A3-1C461A456F06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B45FA10-FE8B-4782-AA99-95453F5000E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="7500" windowHeight="9345" firstSheet="1" activeTab="1" xr2:uid="{4D271E23-BBA0-41FB-8BFF-21670A73DBD9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4D271E23-BBA0-41FB-8BFF-21670A73DBD9}"/>
   </bookViews>
   <sheets>
     <sheet name="properly up to k=52" sheetId="10" r:id="rId1"/>
@@ -191,11 +191,49 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Graph 1: Mean accuracy as a function</a:t>
+              <a:t>Graph 1: variation</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> of k</a:t>
+              <a:t> and standard deviation of </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>mean accuracy, precision and recall </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>as a function of K</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -209,26 +247,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -251,27 +269,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:errBars>
@@ -281,10 +300,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'properly up to k=52'!$C$2:$C$11</c:f>
+                <c:f>'properly up to k=52'!$C$2:$C$27</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
+                  <c:ptCount val="26"/>
                   <c:pt idx="0">
                     <c:v>1.3035250446163E-4</c:v>
                   </c:pt>
@@ -314,16 +333,64 @@
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>1.43819892920879E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.3896975609756099E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.4319474122546E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1.5239500297441999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.59519428911362E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1.53146341463414E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1.6993037477691601E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.8307005353955801E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.10305080309339E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2.11561308744793E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1.9690479476501901E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2.39360761451516E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2.47326591314692E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3.0861989292088002E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>3.2196966091612101E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>3.8537915526472001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>5.4559521713265697E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'properly up to k=52'!$C$2:$C$11</c:f>
+                <c:f>'properly up to k=52'!$C$2:$C$27</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
+                  <c:ptCount val="26"/>
                   <c:pt idx="0">
                     <c:v>1.3035250446163E-4</c:v>
                   </c:pt>
@@ -353,6 +420,461 @@
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>1.43819892920879E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1.3896975609756099E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.4319474122546E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1.5239500297441999E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.59519428911362E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1.53146341463414E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1.6993037477691601E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.8307005353955801E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.10305080309339E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2.11561308744793E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1.9690479476501901E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2.39360761451516E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2.47326591314692E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3.0861989292088002E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>3.2196966091612101E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>3.8537915526472001E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>5.4559521713265697E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'properly up to k=52'!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'properly up to k=52'!$B$2:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.95875121951220799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96958048780489103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96873170731708602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96780000000001298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96633658536586697</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96542439024391502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96339024390245198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96175121951220899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96099512195123304</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.96006341463415901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95958048780489003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95815121951220705</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95678048780489</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95602926829269297</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.95582926829269399</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95353170731708203</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.95093170731708299</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94962439024391099</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.94850731707317804</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.94500487804878497</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94296585365853902</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.94053658536585505</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.93686341463414302</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.932756097560971</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.92916585365853199</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.92185853658535799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B97F-47E1-B63E-0B7ED83EE8B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'properly up to k=52'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                  <a:alpha val="45000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'properly up to k=52'!$E$2:$E$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="26"/>
+                  <c:pt idx="0">
+                    <c:v>4.7714640785415601E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.77556044219195E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.64900734634861E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.2464542904449099E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.26965979328656E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.18650711423927E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.2031422668740201E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.8455309413304401E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.7678878391753502E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.7524199160673098E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.89261652334062E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.2705647225273198E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>3.7162824273671602E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3.4721134161661297E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3.3511177342367902E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>3.5186510884705797E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>3.2039294921555199E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>3.3033501101852102E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>3.2679150888109698E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>3.0708907033740802E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>3.24224343929803E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>3.0723041099043301E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3.36962896345218E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>3.3134801038269099E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>3.3462509282225402E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.11641724635315E-4</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'properly up to k=52'!$E$2:$E$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="26"/>
+                  <c:pt idx="0">
+                    <c:v>4.7714640785415601E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.77556044219195E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.64900734634861E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.2464542904449099E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.26965979328656E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.18650711423927E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.2031422668740201E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.8455309413304401E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>3.7678878391753502E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.7524199160673098E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.89261652334062E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.2705647225273198E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>3.7162824273671602E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3.4721134161661297E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3.3511177342367902E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>3.5186510884705797E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>3.2039294921555199E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>3.3033501101852102E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>3.2679150888109698E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>3.0708907033740802E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>3.24224343929803E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>3.0723041099043301E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3.36962896345218E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>3.3134801038269099E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>3.3462509282225402E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.11641724635315E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -460,87 +982,87 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'properly up to k=52'!$B$2:$B$27</c:f>
+              <c:f>'properly up to k=52'!$D$2:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.95875121951220799</c:v>
+                  <c:v>0.94979240732366399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96958048780489103</c:v>
+                  <c:v>0.95429381001437996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96873170731708602</c:v>
+                  <c:v>0.95650083667380303</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96780000000001298</c:v>
+                  <c:v>0.95720081453523298</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96633658536586697</c:v>
+                  <c:v>0.95915359510482401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96542439024391502</c:v>
+                  <c:v>0.96173409215292704</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.96339024390245198</c:v>
+                  <c:v>0.96245357285286603</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.96175121951220899</c:v>
+                  <c:v>0.96300018682145005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.96099512195123304</c:v>
+                  <c:v>0.96397051663980604</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.96006341463415901</c:v>
+                  <c:v>0.96491511078053505</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.95958048780489003</c:v>
+                  <c:v>0.96581465005462797</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.95815121951220705</c:v>
+                  <c:v>0.96616495698367999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.95678048780489</c:v>
+                  <c:v>0.96624516707256003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.95602926829269297</c:v>
+                  <c:v>0.96721273677402098</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.95582926829269399</c:v>
+                  <c:v>0.96870301718311502</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.95353170731708203</c:v>
+                  <c:v>0.96896798722742705</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.95093170731708299</c:v>
+                  <c:v>0.96967939696192096</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.94962439024391099</c:v>
+                  <c:v>0.97027680776743397</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.94850731707317804</c:v>
+                  <c:v>0.97137652981700995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.94500487804878497</c:v>
+                  <c:v>0.97096397977518001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.94296585365853902</c:v>
+                  <c:v>0.97107131106723699</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.94053658536585505</c:v>
+                  <c:v>0.97298745818115495</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.93686341463414302</c:v>
+                  <c:v>0.972961521477957</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.932756097560971</c:v>
+                  <c:v>0.97442756077429904</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.92916585365853199</c:v>
+                  <c:v>0.97621022799767099</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.92185853658535799</c:v>
+                  <c:v>0.97834372799258695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -548,7 +1070,425 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B97F-47E1-B63E-0B7ED83EE8B7}"/>
+              <c16:uniqueId val="{00000007-B97F-47E1-B63E-0B7ED83EE8B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'properly up to k=52'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'properly up to k=52'!$G$2:$G$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="26"/>
+                  <c:pt idx="0">
+                    <c:v>8.6612233445681596E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.4846138328652104E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.6291106302021803E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.6501040233551696E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.4726772663844703E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8.5862753701010895E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.8831671064697995E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8.2475475884885401E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8.8433673762411196E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>8.5929625063622603E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>8.8435368392079201E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>8.5370332934253505E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>9.4519809621254603E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.01607080765902E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1.0471388056820499E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1.0914986634355101E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.2062828386201201E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1.38238532103768E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1.3530976840233401E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1.3530864574767599E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>1.53902934008175E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1.6457531355913201E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>1.9705936956333999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2.2615228110943E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2.6509786452511498E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.8108529716865702E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'properly up to k=52'!$G$2:$G$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="26"/>
+                  <c:pt idx="0">
+                    <c:v>8.6612233445681596E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.4846138328652104E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.6291106302021803E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.6501040233551696E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.4726772663844703E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8.5862753701010895E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.8831671064697995E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8.2475475884885401E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8.8433673762411196E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>8.5929625063622603E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>8.8435368392079201E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>8.5370332934253505E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>9.4519809621254603E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.01607080765902E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1.0471388056820499E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1.0914986634355101E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.2062828386201201E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1.38238532103768E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1.3530976840233401E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1.3530864574767599E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>1.53902934008175E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1.6457531355913201E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>1.9705936956333999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2.2615228110943E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2.6509786452511498E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.8108529716865702E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'properly up to k=52'!$A$2:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'properly up to k=52'!$F$2:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.93142648166690201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95875266396594505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95377949860506295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94973985260096805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94355276068148097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93833497885882</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93180264649436195</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92590950351738199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92228716750656903</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91913074392511696</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91628643033724</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91174793044306202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.90732303833877304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.90441365288702003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.90199424684040697</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.89504895479301605</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.88724496327944802</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.88317435787161402</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.87774887770935694</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.86793139900428495</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.86201138941676703</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.85347729441597098</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.84336603594521697</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.82954570558014795</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.81680068227382896</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.79443368322186902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B97F-47E1-B63E-0B7ED83EE8B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -605,8 +1545,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-CA"/>
-                  <a:t>k nearest neighbours</a:t>
+                  <a:t>k</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> nearest neighbours</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -618,26 +1563,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -684,6 +1609,8 @@
         <c:axId val="442862648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.98"/>
+          <c:min val="0.79"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -722,11 +1649,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-CA"/>
-                  <a:t>mean</a:t>
+                  <a:t>mean value</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-CA" baseline="0"/>
-                  <a:t> accuracy over 1000 repetitions</a:t>
+                  <a:t> over 1000 repetitions</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-CA"/>
               </a:p>
@@ -740,26 +1667,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -802,13 +1709,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -843,30 +1743,9 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -6715,10 +7594,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'properly up to k=52'!$G$2:$G$11</c:f>
+                <c:f>'properly up to k=52'!$G$2:$G$27</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
+                  <c:ptCount val="26"/>
                   <c:pt idx="0">
                     <c:v>8.6612233445681596E-4</c:v>
                   </c:pt>
@@ -6748,16 +7627,64 @@
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>8.5929625063622603E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>8.8435368392079201E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>8.5370332934253505E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>9.4519809621254603E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.01607080765902E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1.0471388056820499E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1.0914986634355101E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.2062828386201201E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1.38238532103768E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1.3530976840233401E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1.3530864574767599E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>1.53902934008175E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1.6457531355913201E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>1.9705936956333999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2.2615228110943E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2.6509786452511498E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.8108529716865702E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'properly up to k=52'!$G$2:$G$11</c:f>
+                <c:f>'properly up to k=52'!$G$2:$G$27</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
+                  <c:ptCount val="26"/>
                   <c:pt idx="0">
                     <c:v>8.6612233445681596E-4</c:v>
                   </c:pt>
@@ -6787,6 +7714,54 @@
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>8.5929625063622603E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>8.8435368392079201E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>8.5370332934253505E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>9.4519809621254603E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.01607080765902E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1.0471388056820499E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1.0914986634355101E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1.2062828386201201E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1.38238532103768E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1.3530976840233401E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1.3530864574767599E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>1.53902934008175E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1.6457531355913201E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>1.9705936956333999E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2.2615228110943E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2.6509786452511498E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.8108529716865702E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -7449,10 +8424,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'properly up to k=52'!$E$2:$E$11</c:f>
+                <c:f>'properly up to k=52'!$E$2:$E$27</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
+                  <c:ptCount val="26"/>
                   <c:pt idx="0">
                     <c:v>4.7714640785415601E-4</c:v>
                   </c:pt>
@@ -7482,16 +8457,64 @@
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>3.7524199160673098E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.89261652334062E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.2705647225273198E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>3.7162824273671602E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3.4721134161661297E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3.3511177342367902E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>3.5186510884705797E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>3.2039294921555199E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>3.3033501101852102E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>3.2679150888109698E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>3.0708907033740802E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>3.24224343929803E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>3.0723041099043301E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3.36962896345218E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>3.3134801038269099E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>3.3462509282225402E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.11641724635315E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'properly up to k=52'!$E$2:$E$11</c:f>
+                <c:f>'properly up to k=52'!$E$2:$E$27</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="10"/>
+                  <c:ptCount val="26"/>
                   <c:pt idx="0">
                     <c:v>4.7714640785415601E-4</c:v>
                   </c:pt>
@@ -7521,6 +8544,54 @@
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>3.7524199160673098E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.89261652334062E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.2705647225273198E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>3.7162824273671602E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3.4721134161661297E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3.3511177342367902E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>3.5186510884705797E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>3.2039294921555199E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>3.3033501101852102E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>3.2679150888109698E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>3.0708907033740802E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>3.24224343929803E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>3.0723041099043301E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>3.36962896345218E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>3.3134801038269099E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>3.3462509282225402E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>3.11641724635315E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -12210,46 +13281,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -17214,7 +18245,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17730,7 +18761,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18246,7 +19277,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18762,7 +19793,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19278,7 +20309,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19794,7 +20825,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20310,7 +21341,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20826,7 +21857,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21342,536 +22373,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>591140</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>26829</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114890</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>145892</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>557866</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>81616</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>167956</xdr:rowOff>
+      <xdr:rowOff>101810</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22869,8 +23384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295EAD86-759A-4D89-A044-AA6C5234C7DF}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView zoomScale="72" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="K3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23557,8 +24072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADDBDB0-5F9B-4732-95DA-3795AD9118BC}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="72" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="E1" zoomScale="72" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
